--- a/dataWps/themes01level.xlsx
+++ b/dataWps/themes01level.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>id</t>
   </si>
@@ -48,6 +48,9 @@
     <t>honor</t>
   </si>
   <si>
+    <t>newW</t>
+  </si>
+  <si>
     <t>ss_map01.png</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
     <t>ss_towers_02.png</t>
   </si>
   <si>
+    <t>NT3_CN.png</t>
+  </si>
+  <si>
     <t>ss_map03.png</t>
   </si>
   <si>
@@ -72,12 +78,18 @@
     <t>ss_waves_20.png</t>
   </si>
   <si>
+    <t>NT4_CN.png</t>
+  </si>
+  <si>
     <t>ss_map04.png</t>
   </si>
   <si>
     <t>ss_towers_04.png</t>
   </si>
   <si>
+    <t>NT5_CN.png</t>
+  </si>
+  <si>
     <t>ss_map05.png</t>
   </si>
   <si>
@@ -159,6 +171,9 @@
     <t>过关荣誉</t>
   </si>
   <si>
+    <t>是否有</t>
+  </si>
+  <si>
     <t>0解锁</t>
   </si>
   <si>
@@ -171,6 +186,9 @@
     <t>1一颗星</t>
   </si>
   <si>
+    <t>新武器</t>
+  </si>
+  <si>
     <t>1未解锁</t>
   </si>
   <si>
@@ -180,10 +198,13 @@
     <t>2一颗星</t>
   </si>
   <si>
+    <t>0没有</t>
+  </si>
+  <si>
     <t>3一颗星</t>
   </si>
   <si>
-    <t>0没有</t>
+    <t>1有</t>
   </si>
 </sst>
 </file>
@@ -191,10 +212,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -588,24 +609,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
-    <col min="7" max="256" width="9" style="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,25 +651,28 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1">
         <v>15</v>
@@ -668,25 +686,28 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1">
         <v>15</v>
@@ -700,25 +721,28 @@
       <c r="J3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1">
         <v>20</v>
@@ -732,25 +756,28 @@
       <c r="J4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1">
         <v>20</v>
@@ -764,25 +791,28 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1">
         <v>20</v>
@@ -796,25 +826,28 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1">
         <v>25</v>
@@ -828,25 +861,28 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1">
         <v>20</v>
@@ -860,25 +896,28 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1">
         <v>25</v>
@@ -892,25 +931,28 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>1009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1">
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1">
         <v>20</v>
@@ -924,25 +966,28 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>1010</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G11" s="1">
         <v>25</v>
@@ -956,25 +1001,28 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>1011</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G12" s="1">
         <v>25</v>
@@ -988,25 +1036,28 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>1012</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1">
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G13" s="1">
         <v>25</v>
@@ -1018,6 +1069,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1031,10 +1085,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1050,7 +1104,7 @@
     <col min="10" max="256" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,72 +1135,96 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="3:10">
+        <v>50</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:11">
       <c r="C3" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10">
+        <v>55</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:11">
       <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="10:10">
+        <v>59</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="10:11">
       <c r="J5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="10:10">
+        <v>61</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="10:10">
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
